--- a/Experiments/Part3-Producer/DocPop/setting 6 Results/DocPop_prod-Mix_STwo-400-payoff.xlsx
+++ b/Experiments/Part3-Producer/DocPop/setting 6 Results/DocPop_prod-Mix_STwo-400-payoff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2500" windowWidth="21040" windowHeight="12060" tabRatio="500"/>
+    <workbookView xWindow="4200" yWindow="900" windowWidth="21040" windowHeight="12060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DocPop_prod-Mix_STwo-400-payoff" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Taste 0</t>
+  </si>
+  <si>
+    <t>Producer Taste 0</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088548760"/>
-        <c:axId val="-2071315832"/>
+        <c:axId val="2146181016"/>
+        <c:axId val="2138381496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -649,7 +652,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 0</c:v>
+                  <c:v>Producer Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -915,11 +918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071458824"/>
-        <c:axId val="-2066931192"/>
+        <c:axId val="2138568328"/>
+        <c:axId val="2138429832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088548760"/>
+        <c:axId val="2146181016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071315832"/>
+        <c:crossAx val="2138381496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -936,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071315832"/>
+        <c:axId val="2138381496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,12 +950,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088548760"/>
+        <c:crossAx val="2146181016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2066931192"/>
+        <c:axId val="2138429832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,12 +965,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071458824"/>
+        <c:crossAx val="2138568328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2071458824"/>
+        <c:axId val="2138568328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +979,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066931192"/>
+        <c:crossAx val="2138429832"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1357,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1373,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2245,9 +2249,15 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="C82">
+        <f>SUM(C2:C80)</f>
+        <v>76246</v>
       </c>
     </row>
   </sheetData>
